--- a/BackTest/2020-01-23 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-23 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,19 @@
         <v>-332.4574</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>60350</v>
+      </c>
+      <c r="J7" t="n">
+        <v>60350</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +655,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>60350</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +694,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>60350</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +733,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +766,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +799,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +830,19 @@
         <v>-247.8008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>60400</v>
+      </c>
+      <c r="J13" t="n">
+        <v>60400</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +869,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>60400</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +908,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>60400</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +945,15 @@
         <v>-176.9892</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +980,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1013,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1046,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1079,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1112,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1145,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1178,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1211,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1244,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1277,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1310,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1341,15 @@
         <v>-201.6945314</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1376,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1407,15 @@
         <v>-201.7946314</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1440,15 @@
         <v>-384.7422314</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1473,15 @@
         <v>-368.3766314</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1508,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1541,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1572,21 @@
         <v>-368.5802313999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>60450</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1613,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1648,21 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60350</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1687,21 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>60150</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,22 +1726,21 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
         <v>60150</v>
       </c>
-      <c r="K39" t="n">
-        <v>60150</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1828,24 +1765,21 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60150</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>60150</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1870,24 +1804,21 @@
         <v>-343.1400313999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>60150</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>60150</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,18 +1843,21 @@
         <v>-342.1400313999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>60050</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1948,18 +1882,21 @@
         <v>-290.9982314</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60250</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1986,16 +1923,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2022,16 +1960,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,16 +1997,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2094,16 +2034,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,16 +2071,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,16 +2108,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2200,18 +2143,19 @@
         <v>-174.4913313999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2182,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2219,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2256,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2293,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2382,16 +2330,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2367,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,16 +2404,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,16 +2441,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2524,18 +2476,19 @@
         <v>-128.7426313999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2560,18 +2513,19 @@
         <v>-127.8426313999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2596,18 +2550,19 @@
         <v>-334.4357313999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2632,18 +2587,19 @@
         <v>-327.8871313999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2668,18 +2624,19 @@
         <v>-327.6041313999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,16 +2663,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,16 +2700,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,16 +2737,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,16 +2774,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,16 +2811,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2886,16 +2848,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2922,16 +2885,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2922,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,16 +2959,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,16 +2996,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,16 +3033,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,16 +3070,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +3107,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,16 +3144,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,16 +3181,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,16 +3218,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3280,18 +3253,17 @@
         <v>-407.0732313999998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3316,18 +3288,15 @@
         <v>-407.0732313999998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3352,18 +3321,15 @@
         <v>-390.8420313999998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,16 +3356,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,16 +3389,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,16 +3422,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,16 +3455,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3534,16 +3488,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,16 +3521,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3606,16 +3554,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3642,16 +3587,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3678,16 +3620,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3714,16 +3653,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3750,16 +3686,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3786,16 +3719,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3822,16 +3752,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3858,16 +3785,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3894,16 +3818,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3930,16 +3851,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3966,16 +3884,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4002,16 +3917,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4038,16 +3950,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4074,16 +3983,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4110,16 +4016,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,16 +4049,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4182,16 +4082,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4218,16 +4115,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4252,22 +4146,15 @@
         <v>-384.5895806299998</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K107" t="n">
-        <v>60850</v>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4294,22 +4181,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>60850</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4336,22 +4214,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>60850</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4378,16 +4247,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4414,16 +4280,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4450,16 +4313,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4486,16 +4346,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4522,16 +4379,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4558,16 +4412,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4594,16 +4445,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4628,22 +4476,15 @@
         <v>-398.5579806299999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>60700</v>
-      </c>
-      <c r="K117" t="n">
-        <v>60700</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4668,26 +4509,15 @@
         <v>-461.5579806299999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>60700</v>
-      </c>
-      <c r="K118" t="n">
-        <v>60700</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4712,28 +4542,17 @@
         <v>-461.5579806299999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>60250</v>
-      </c>
-      <c r="K119" t="n">
-        <v>60700</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-23 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,14 +616,10 @@
         <v>-332.4574</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60350</v>
-      </c>
-      <c r="J7" t="n">
-        <v>60350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -656,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>60350</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -695,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>60350</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -830,14 +814,10 @@
         <v>-247.8008</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>60400</v>
-      </c>
-      <c r="J13" t="n">
-        <v>60400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -870,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>60400</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -909,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>60400</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -945,7 +913,7 @@
         <v>-176.9892</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1341,7 +1309,7 @@
         <v>-201.6945314</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1374,10 +1342,14 @@
         <v>-201.6945314</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>60650</v>
+      </c>
+      <c r="J29" t="n">
+        <v>60650</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1409,9 +1381,17 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>60650</v>
+      </c>
+      <c r="J30" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1442,9 +1422,17 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>60350</v>
+      </c>
+      <c r="J31" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1473,11 +1461,17 @@
         <v>-368.3766314</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1506,11 +1500,19 @@
         <v>-368.1651314</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>60400</v>
+      </c>
+      <c r="J33" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1542,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>60650</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1572,15 +1580,17 @@
         <v>-368.5802313999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>60450</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>60650</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1611,10 +1621,14 @@
         <v>-338.5802313999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>60300</v>
+      </c>
+      <c r="J36" t="n">
+        <v>60650</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1648,12 +1662,14 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>60350</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>60650</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1687,12 +1703,14 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>60150</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>60650</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1726,12 +1744,14 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>60150</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>60650</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1765,12 +1785,14 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>60150</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>60650</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1804,12 +1826,14 @@
         <v>-343.1400313999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>60150</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>60650</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1843,12 +1867,14 @@
         <v>-342.1400313999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>60050</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>60650</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1882,12 +1908,12 @@
         <v>-290.9982314</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>60250</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>60650</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1924,7 +1950,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>60650</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1961,7 +1989,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>60650</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1998,7 +2028,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>60650</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2035,7 +2067,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>60650</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2072,7 +2106,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>60650</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2109,7 +2145,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>60650</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2143,10 +2181,12 @@
         <v>-174.4913313999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>60650</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2183,7 +2223,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>60650</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2220,7 +2262,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>60650</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2257,7 +2301,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>60650</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2294,7 +2340,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>60650</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2331,7 +2379,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>60650</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2368,7 +2418,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>60650</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2405,7 +2457,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>60650</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2442,7 +2496,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>60650</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2476,10 +2532,12 @@
         <v>-128.7426313999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>60650</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2513,10 +2571,12 @@
         <v>-127.8426313999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>60650</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2550,10 +2610,12 @@
         <v>-334.4357313999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>60650</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,10 +2649,12 @@
         <v>-327.8871313999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>60650</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2624,10 +2688,12 @@
         <v>-327.6041313999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>60650</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2664,7 +2730,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>60650</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2701,7 +2769,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>60650</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,7 +2808,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>60650</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2775,7 +2847,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>60650</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2809,17 +2883,19 @@
         <v>-297.7024313999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>60650</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>1.002419620774938</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -2850,11 +2926,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2887,11 +2959,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2924,11 +2992,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2961,11 +3025,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2998,11 +3058,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3035,11 +3091,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3072,11 +3124,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3109,11 +3157,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3146,11 +3190,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3183,11 +3223,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3220,11 +3256,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3253,16 +3285,14 @@
         <v>-407.0732313999998</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3288,7 +3318,7 @@
         <v>-407.0732313999998</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3321,7 +3351,7 @@
         <v>-390.8420313999998</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3354,7 +3384,7 @@
         <v>-390.8420313999998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3387,7 +3417,7 @@
         <v>-390.8420313999998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3420,7 +3450,7 @@
         <v>-403.9269313999998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3453,7 +3483,7 @@
         <v>-403.9269313999998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3486,7 +3516,7 @@
         <v>-404.4179313999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3552,7 +3582,7 @@
         <v>-420.6491313999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3585,7 +3615,7 @@
         <v>-422.0457313999998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3816,7 +3846,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3849,7 +3879,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3882,7 +3912,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3915,7 +3945,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3948,7 +3978,7 @@
         <v>-385.9000313999998</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3981,7 +4011,7 @@
         <v>-385.9000313999998</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4014,7 +4044,7 @@
         <v>-386.0727313999998</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4047,7 +4077,7 @@
         <v>-385.2523806299998</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4080,7 +4110,7 @@
         <v>-386.0727806299998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4245,7 +4275,7 @@
         <v>-386.7361806299999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4377,7 +4407,7 @@
         <v>-382.7579806299998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4553,6 +4583,6 @@
       <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-23 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-271.8008</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-247.8008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-177.323</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-176.9892</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-180.1764314</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-201.0387314</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-201.0387314</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-203.4953314</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,14 +1342,10 @@
         <v>-201.6945314</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>60650</v>
-      </c>
-      <c r="J29" t="n">
-        <v>60650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1379,663 +1375,551 @@
         <v>-201.7946314</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>60650</v>
-      </c>
-      <c r="J30" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>60450</v>
+      </c>
+      <c r="C31" t="n">
+        <v>60050</v>
+      </c>
+      <c r="D31" t="n">
+        <v>60450</v>
+      </c>
+      <c r="E31" t="n">
+        <v>60050</v>
+      </c>
+      <c r="F31" t="n">
+        <v>182.9476</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-384.7422314</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>60400</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60400</v>
+      </c>
+      <c r="D32" t="n">
+        <v>60400</v>
+      </c>
+      <c r="E32" t="n">
+        <v>60400</v>
+      </c>
+      <c r="F32" t="n">
+        <v>16.3656</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-368.3766314</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>60450</v>
+      </c>
+      <c r="C33" t="n">
+        <v>60450</v>
+      </c>
+      <c r="D33" t="n">
+        <v>60450</v>
+      </c>
+      <c r="E33" t="n">
+        <v>60450</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2115</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-368.1651314</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>60450</v>
+      </c>
+      <c r="C34" t="n">
+        <v>60450</v>
+      </c>
+      <c r="D34" t="n">
+        <v>60450</v>
+      </c>
+      <c r="E34" t="n">
+        <v>60450</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2007</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-368.1651314</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C35" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D35" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E35" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.4151</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-368.5802313999999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D36" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E36" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-338.5802313999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60150</v>
+      </c>
+      <c r="C37" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D37" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E37" t="n">
+        <v>60150</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4.1196</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-342.6998313999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>60150</v>
+      </c>
+      <c r="C38" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D38" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E38" t="n">
+        <v>60150</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12.9998</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-342.6998313999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>60150</v>
+      </c>
+      <c r="C39" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D39" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E39" t="n">
+        <v>60150</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.6565</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-342.6998313999999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>60150</v>
+      </c>
+      <c r="C40" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D40" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E40" t="n">
+        <v>60150</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4.8298</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-342.6998313999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>60050</v>
+      </c>
+      <c r="C41" t="n">
+        <v>60050</v>
+      </c>
+      <c r="D41" t="n">
+        <v>60050</v>
+      </c>
+      <c r="E41" t="n">
+        <v>60050</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.4402</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-343.1400313999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>60250</v>
+      </c>
+      <c r="C42" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D42" t="n">
+        <v>60250</v>
+      </c>
+      <c r="E42" t="n">
+        <v>60250</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-342.1400313999999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C43" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D43" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E43" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F43" t="n">
+        <v>51.1418</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-290.9982314</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C44" t="n">
+        <v>60100</v>
+      </c>
+      <c r="D44" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E44" t="n">
+        <v>60100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>15</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-305.9982314</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>60250</v>
+      </c>
+      <c r="C45" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D45" t="n">
+        <v>60250</v>
+      </c>
+      <c r="E45" t="n">
+        <v>60250</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.3176</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-304.6806313999999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>60100</v>
+      </c>
+      <c r="J45" t="n">
+        <v>60100</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>60250</v>
+      </c>
+      <c r="C46" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D46" t="n">
+        <v>60250</v>
+      </c>
+      <c r="E46" t="n">
+        <v>60250</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-304.6806313999999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J46" t="n">
+        <v>60100</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>60450</v>
-      </c>
-      <c r="C31" t="n">
-        <v>60050</v>
-      </c>
-      <c r="D31" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E31" t="n">
-        <v>60050</v>
-      </c>
-      <c r="F31" t="n">
-        <v>182.9476</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-384.7422314</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>60350</v>
-      </c>
-      <c r="J31" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>60400</v>
-      </c>
-      <c r="C32" t="n">
-        <v>60400</v>
-      </c>
-      <c r="D32" t="n">
-        <v>60400</v>
-      </c>
-      <c r="E32" t="n">
-        <v>60400</v>
-      </c>
-      <c r="F32" t="n">
-        <v>16.3656</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-368.3766314</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>60450</v>
-      </c>
-      <c r="C33" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D33" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E33" t="n">
-        <v>60450</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.2115</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-368.1651314</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>60400</v>
-      </c>
-      <c r="J33" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>60450</v>
-      </c>
-      <c r="C34" t="n">
-        <v>60450</v>
-      </c>
-      <c r="D34" t="n">
-        <v>60450</v>
-      </c>
-      <c r="E34" t="n">
-        <v>60450</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.2007</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-368.1651314</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C35" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D35" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E35" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.4151</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-368.5802313999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>60450</v>
-      </c>
-      <c r="J35" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C36" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D36" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E36" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F36" t="n">
-        <v>30</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-338.5802313999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>60300</v>
-      </c>
-      <c r="J36" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>60150</v>
-      </c>
-      <c r="C37" t="n">
-        <v>60150</v>
-      </c>
-      <c r="D37" t="n">
-        <v>60150</v>
-      </c>
-      <c r="E37" t="n">
-        <v>60150</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4.1196</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-342.6998313999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>60350</v>
-      </c>
-      <c r="J37" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>60150</v>
-      </c>
-      <c r="C38" t="n">
-        <v>60150</v>
-      </c>
-      <c r="D38" t="n">
-        <v>60150</v>
-      </c>
-      <c r="E38" t="n">
-        <v>60150</v>
-      </c>
-      <c r="F38" t="n">
-        <v>12.9998</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-342.6998313999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>60150</v>
-      </c>
-      <c r="J38" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>60150</v>
-      </c>
-      <c r="C39" t="n">
-        <v>60150</v>
-      </c>
-      <c r="D39" t="n">
-        <v>60150</v>
-      </c>
-      <c r="E39" t="n">
-        <v>60150</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.6565</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-342.6998313999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>60150</v>
-      </c>
-      <c r="J39" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>60150</v>
-      </c>
-      <c r="C40" t="n">
-        <v>60150</v>
-      </c>
-      <c r="D40" t="n">
-        <v>60150</v>
-      </c>
-      <c r="E40" t="n">
-        <v>60150</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4.8298</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-342.6998313999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>60150</v>
-      </c>
-      <c r="J40" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>60050</v>
-      </c>
-      <c r="C41" t="n">
-        <v>60050</v>
-      </c>
-      <c r="D41" t="n">
-        <v>60050</v>
-      </c>
-      <c r="E41" t="n">
-        <v>60050</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.4402</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-343.1400313999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>60150</v>
-      </c>
-      <c r="J41" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>60250</v>
-      </c>
-      <c r="C42" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D42" t="n">
-        <v>60250</v>
-      </c>
-      <c r="E42" t="n">
-        <v>60250</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-342.1400313999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>60050</v>
-      </c>
-      <c r="J42" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C43" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D43" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E43" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F43" t="n">
-        <v>51.1418</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-290.9982314</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C44" t="n">
-        <v>60100</v>
-      </c>
-      <c r="D44" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E44" t="n">
-        <v>60100</v>
-      </c>
-      <c r="F44" t="n">
-        <v>15</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-305.9982314</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>60250</v>
-      </c>
-      <c r="C45" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D45" t="n">
-        <v>60250</v>
-      </c>
-      <c r="E45" t="n">
-        <v>60250</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.3176</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-304.6806313999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>60250</v>
-      </c>
-      <c r="C46" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D46" t="n">
-        <v>60250</v>
-      </c>
-      <c r="E46" t="n">
-        <v>60250</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-304.6806313999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2064,15 +1948,15 @@
         <v>-265.0703313999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>60650</v>
+        <v>60100</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2106,14 +1990,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2145,14 +2023,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2184,14 +2056,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2223,14 +2089,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +2122,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2301,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2340,14 +2188,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2379,14 +2221,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2418,14 +2254,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2454,17 +2284,11 @@
         <v>-146.3699314</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2493,17 +2317,11 @@
         <v>-145.5159313999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2535,14 +2353,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2574,14 +2386,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2613,14 +2419,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2652,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2691,14 +2485,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2730,14 +2518,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2769,14 +2551,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2808,14 +2584,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2847,14 +2617,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2883,19 +2647,13 @@
         <v>-297.7024313999999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>60650</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>1.002419620774938</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -3351,7 +3109,7 @@
         <v>-390.8420313999998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3384,7 +3142,7 @@
         <v>-390.8420313999998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3417,7 +3175,7 @@
         <v>-390.8420313999998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3450,7 +3208,7 @@
         <v>-403.9269313999998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3483,7 +3241,7 @@
         <v>-403.9269313999998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3516,7 +3274,7 @@
         <v>-404.4179313999998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3582,7 +3340,7 @@
         <v>-420.6491313999998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3615,7 +3373,7 @@
         <v>-422.0457313999998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3846,7 +3604,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3879,7 +3637,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3912,7 +3670,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3945,7 +3703,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3978,7 +3736,7 @@
         <v>-385.9000313999998</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4011,7 +3769,7 @@
         <v>-385.9000313999998</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4044,7 +3802,7 @@
         <v>-386.0727313999998</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4077,7 +3835,7 @@
         <v>-385.2523806299998</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4110,7 +3868,7 @@
         <v>-386.0727806299998</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4275,7 +4033,7 @@
         <v>-386.7361806299999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4407,7 +4165,7 @@
         <v>-382.7579806299998</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4583,6 +4341,6 @@
       <c r="M119" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-23 BackTest ZEC.xlsx
@@ -484,7 +484,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-271.8008</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-247.8008</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-177.323</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-176.9892</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-180.1764314</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-201.0387314</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-201.6945314</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-201.6945314</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-343.1400313999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-342.1400313999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-290.9982314</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-305.9982314</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,14 +1870,10 @@
         <v>-304.6806313999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>60100</v>
-      </c>
-      <c r="J45" t="n">
-        <v>60100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1907,19 +1903,11 @@
         <v>-304.6806313999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>60250</v>
-      </c>
-      <c r="J46" t="n">
-        <v>60100</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1948,17 +1936,11 @@
         <v>-265.0703313999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>60100</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2284,7 +2266,7 @@
         <v>-146.3699314</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2317,7 +2299,7 @@
         <v>-145.5159313999999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2449,7 +2431,7 @@
         <v>-327.8871313999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2482,7 +2464,7 @@
         <v>-327.6041313999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3241,7 +3223,7 @@
         <v>-403.9269313999998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3934,10 +3916,14 @@
         <v>-384.5895806299998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>60850</v>
+      </c>
+      <c r="J107" t="n">
+        <v>60850</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
@@ -3970,8 +3956,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4000,11 +3992,19 @@
         <v>-386.7361806299999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>60900</v>
+      </c>
+      <c r="J109" t="n">
+        <v>60850</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4231,10 +4231,14 @@
         <v>-398.5579806299999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>60800</v>
+      </c>
+      <c r="J116" t="n">
+        <v>60800</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4264,11 +4268,19 @@
         <v>-398.5579806299999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>60700</v>
+      </c>
+      <c r="J117" t="n">
+        <v>60800</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4297,11 +4309,19 @@
         <v>-461.5579806299999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>60700</v>
+      </c>
+      <c r="J118" t="n">
+        <v>60800</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4330,11 +4350,19 @@
         <v>-461.5579806299999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J119" t="n">
+        <v>60800</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-23 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-23 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>58.8786</v>
       </c>
       <c r="G2" t="n">
-        <v>-328.0660999999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>8.934699999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>-328.0660999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>34.6201</v>
       </c>
       <c r="G4" t="n">
-        <v>-328.0660999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10.3525</v>
       </c>
       <c r="G5" t="n">
-        <v>-328.0660999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4.3913</v>
       </c>
       <c r="G6" t="n">
-        <v>-332.4574</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3.4821</v>
       </c>
       <c r="G7" t="n">
-        <v>-332.4574</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>60.0116</v>
       </c>
       <c r="G8" t="n">
-        <v>-272.4458</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1.0004</v>
       </c>
       <c r="G9" t="n">
-        <v>-273.4462</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1.6454</v>
       </c>
       <c r="G10" t="n">
-        <v>-271.8008</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.9271</v>
       </c>
       <c r="G11" t="n">
-        <v>-271.8008</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>0.3661</v>
       </c>
       <c r="G12" t="n">
-        <v>-271.8008</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>-247.8008</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>70.4778</v>
       </c>
       <c r="G14" t="n">
-        <v>-177.323</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>0.3338</v>
       </c>
       <c r="G15" t="n">
-        <v>-176.9892</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>0.1341</v>
       </c>
       <c r="G16" t="n">
-        <v>-176.9892</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1.6355</v>
       </c>
       <c r="G17" t="n">
-        <v>-175.3537</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>53.6924</v>
       </c>
       <c r="G18" t="n">
-        <v>-175.3537</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>12.1681</v>
       </c>
       <c r="G19" t="n">
-        <v>-187.5218</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7.0202</v>
       </c>
       <c r="G20" t="n">
-        <v>-194.542</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>-196.542</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>16.3655686</v>
       </c>
       <c r="G22" t="n">
-        <v>-180.1764314</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>21.024</v>
       </c>
       <c r="G23" t="n">
-        <v>-201.2004314</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>0.008399999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>-201.2088314</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>0.1701</v>
       </c>
       <c r="G25" t="n">
-        <v>-201.0387314</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>0.79</v>
       </c>
       <c r="G26" t="n">
-        <v>-201.0387314</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2.4566</v>
       </c>
       <c r="G27" t="n">
-        <v>-203.4953314</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1.8008</v>
       </c>
       <c r="G28" t="n">
-        <v>-201.6945314</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>44.0765</v>
       </c>
       <c r="G29" t="n">
-        <v>-201.6945314</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>0.1001</v>
       </c>
       <c r="G30" t="n">
-        <v>-201.7946314</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>182.9476</v>
       </c>
       <c r="G31" t="n">
-        <v>-384.7422314</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>16.3656</v>
       </c>
       <c r="G32" t="n">
-        <v>-368.3766314</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>0.2115</v>
       </c>
       <c r="G33" t="n">
-        <v>-368.1651314</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>0.2007</v>
       </c>
       <c r="G34" t="n">
-        <v>-368.1651314</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>0.4151</v>
       </c>
       <c r="G35" t="n">
-        <v>-368.5802313999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>30</v>
       </c>
       <c r="G36" t="n">
-        <v>-338.5802313999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>4.1196</v>
       </c>
       <c r="G37" t="n">
-        <v>-342.6998313999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>12.9998</v>
       </c>
       <c r="G38" t="n">
-        <v>-342.6998313999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>2.6565</v>
       </c>
       <c r="G39" t="n">
-        <v>-342.6998313999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>4.8298</v>
       </c>
       <c r="G40" t="n">
-        <v>-342.6998313999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>0.4402</v>
       </c>
       <c r="G41" t="n">
-        <v>-343.1400313999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-342.1400313999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,19 @@
         <v>51.1418</v>
       </c>
       <c r="G43" t="n">
-        <v>-290.9982314</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>60250</v>
+      </c>
+      <c r="I43" t="n">
+        <v>60250</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1707,21 @@
         <v>15</v>
       </c>
       <c r="G44" t="n">
-        <v>-305.9982314</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1743,21 @@
         <v>1.3176</v>
       </c>
       <c r="G45" t="n">
-        <v>-304.6806313999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,21 @@
         <v>0.0185</v>
       </c>
       <c r="G46" t="n">
-        <v>-304.6806313999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1815,21 @@
         <v>39.6103</v>
       </c>
       <c r="G47" t="n">
-        <v>-265.0703313999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1851,21 @@
         <v>93.01220000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-172.0581313999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1887,21 @@
         <v>1.93</v>
       </c>
       <c r="G49" t="n">
-        <v>-173.9881313999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1923,23 @@
         <v>0.5032</v>
       </c>
       <c r="G50" t="n">
-        <v>-174.4913313999999</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>60150</v>
+      </c>
+      <c r="I50" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1961,23 @@
         <v>1.1153</v>
       </c>
       <c r="G51" t="n">
-        <v>-173.3760313999999</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>59850</v>
+      </c>
+      <c r="I51" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1999,23 @@
         <v>0.6283</v>
       </c>
       <c r="G52" t="n">
-        <v>-173.3760313999999</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>60000</v>
+      </c>
+      <c r="I52" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2037,23 @@
         <v>1.885</v>
       </c>
       <c r="G53" t="n">
-        <v>-173.3760313999999</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>60000</v>
+      </c>
+      <c r="I53" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2075,23 @@
         <v>3.4</v>
       </c>
       <c r="G54" t="n">
-        <v>-176.7760313999999</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>60000</v>
+      </c>
+      <c r="I54" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2113,23 @@
         <v>30.0058</v>
       </c>
       <c r="G55" t="n">
-        <v>-146.7702313999999</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>59750</v>
+      </c>
+      <c r="I55" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2151,23 @@
         <v>0.4003</v>
       </c>
       <c r="G56" t="n">
-        <v>-146.3699314</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>59800</v>
+      </c>
+      <c r="I56" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2189,23 @@
         <v>0.0167</v>
       </c>
       <c r="G57" t="n">
-        <v>-146.3699314</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>60150</v>
+      </c>
+      <c r="I57" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2227,21 @@
         <v>0.854</v>
       </c>
       <c r="G58" t="n">
-        <v>-145.5159313999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2263,21 @@
         <v>16.7733</v>
       </c>
       <c r="G59" t="n">
-        <v>-128.7426313999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2299,21 @@
         <v>0.9</v>
       </c>
       <c r="G60" t="n">
-        <v>-127.8426313999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2335,21 @@
         <v>206.5931</v>
       </c>
       <c r="G61" t="n">
-        <v>-334.4357313999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2371,21 @@
         <v>6.5486</v>
       </c>
       <c r="G62" t="n">
-        <v>-327.8871313999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2407,21 @@
         <v>0.283</v>
       </c>
       <c r="G63" t="n">
-        <v>-327.6041313999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2443,21 @@
         <v>7.6</v>
       </c>
       <c r="G64" t="n">
-        <v>-320.0041313999998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2479,21 @@
         <v>1.6983</v>
       </c>
       <c r="G65" t="n">
-        <v>-321.7024313999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2515,21 @@
         <v>31</v>
       </c>
       <c r="G66" t="n">
-        <v>-352.7024313999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2551,21 @@
         <v>50</v>
       </c>
       <c r="G67" t="n">
-        <v>-302.7024313999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2587,21 @@
         <v>5</v>
       </c>
       <c r="G68" t="n">
-        <v>-297.7024313999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2623,21 @@
         <v>0.5051</v>
       </c>
       <c r="G69" t="n">
-        <v>-298.2075313999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2659,21 @@
         <v>24.6104</v>
       </c>
       <c r="G70" t="n">
-        <v>-322.8179313999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2695,21 @@
         <v>9.138</v>
       </c>
       <c r="G71" t="n">
-        <v>-313.6799313999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2731,21 @@
         <v>93.0307</v>
       </c>
       <c r="G72" t="n">
-        <v>-406.7106313999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2767,21 @@
         <v>0.355</v>
       </c>
       <c r="G73" t="n">
-        <v>-406.3556313999999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2803,21 @@
         <v>12</v>
       </c>
       <c r="G74" t="n">
-        <v>-394.3556313999999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2839,21 @@
         <v>3.7</v>
       </c>
       <c r="G75" t="n">
-        <v>-398.0556313999999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2875,21 @@
         <v>8.982900000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-389.0727313999998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2911,21 @@
         <v>0.5581</v>
       </c>
       <c r="G77" t="n">
-        <v>-389.6308313999999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2947,21 @@
         <v>12.4328</v>
       </c>
       <c r="G78" t="n">
-        <v>-402.0636313999998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2983,21 @@
         <v>4.7666</v>
       </c>
       <c r="G79" t="n">
-        <v>-406.8302313999998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3019,21 @@
         <v>0.243</v>
       </c>
       <c r="G80" t="n">
-        <v>-407.0732313999998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3055,21 @@
         <v>0.2489</v>
       </c>
       <c r="G81" t="n">
-        <v>-407.0732313999998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3091,21 @@
         <v>16.2312</v>
       </c>
       <c r="G82" t="n">
-        <v>-390.8420313999998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3127,21 @@
         <v>7.8757</v>
       </c>
       <c r="G83" t="n">
-        <v>-390.8420313999998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3163,21 @@
         <v>1.2859</v>
       </c>
       <c r="G84" t="n">
-        <v>-390.8420313999998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3199,21 @@
         <v>13.0849</v>
       </c>
       <c r="G85" t="n">
-        <v>-403.9269313999998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3235,21 @@
         <v>38.1573</v>
       </c>
       <c r="G86" t="n">
-        <v>-403.9269313999998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3271,21 @@
         <v>0.491</v>
       </c>
       <c r="G87" t="n">
-        <v>-404.4179313999998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3307,21 @@
         <v>3.274e-05</v>
       </c>
       <c r="G88" t="n">
-        <v>-404.4179313999998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3343,21 @@
         <v>16.2312</v>
       </c>
       <c r="G89" t="n">
-        <v>-420.6491313999998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3379,21 @@
         <v>1.3966</v>
       </c>
       <c r="G90" t="n">
-        <v>-422.0457313999998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3415,21 @@
         <v>0.0404</v>
       </c>
       <c r="G91" t="n">
-        <v>-422.0457313999998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3451,21 @@
         <v>0.4247</v>
       </c>
       <c r="G92" t="n">
-        <v>-422.4704313999998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3487,21 @@
         <v>0.9428</v>
       </c>
       <c r="G93" t="n">
-        <v>-421.5276313999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3523,21 @@
         <v>38.8916</v>
       </c>
       <c r="G94" t="n">
-        <v>-382.6360313999998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3559,21 @@
         <v>0.0001</v>
       </c>
       <c r="G95" t="n">
-        <v>-382.6360313999998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3595,21 @@
         <v>0.7079</v>
       </c>
       <c r="G96" t="n">
-        <v>-382.6360313999998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3631,21 @@
         <v>25.8022</v>
       </c>
       <c r="G97" t="n">
-        <v>-382.6360313999998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3667,21 @@
         <v>0.0225</v>
       </c>
       <c r="G98" t="n">
-        <v>-382.6360313999998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3703,21 @@
         <v>12.198</v>
       </c>
       <c r="G99" t="n">
-        <v>-382.6360313999998</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3739,21 @@
         <v>9.983000000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>-382.6360313999998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3775,21 @@
         <v>3.264</v>
       </c>
       <c r="G101" t="n">
-        <v>-385.9000313999998</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3811,21 @@
         <v>0.033</v>
       </c>
       <c r="G102" t="n">
-        <v>-385.9000313999998</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3847,21 @@
         <v>0.1727</v>
       </c>
       <c r="G103" t="n">
-        <v>-386.0727313999998</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3883,21 @@
         <v>0.82035077</v>
       </c>
       <c r="G104" t="n">
-        <v>-385.2523806299998</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3919,21 @@
         <v>0.8204</v>
       </c>
       <c r="G105" t="n">
-        <v>-386.0727806299998</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3955,21 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-385.0727806299998</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,22 +3991,21 @@
         <v>0.4832</v>
       </c>
       <c r="G107" t="n">
-        <v>-384.5895806299998</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>60850</v>
-      </c>
-      <c r="J107" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>60250</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3950,24 +4027,21 @@
         <v>2.4585</v>
       </c>
       <c r="G108" t="n">
-        <v>-387.0480806299998</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3989,26 +4063,21 @@
         <v>0.3119</v>
       </c>
       <c r="G109" t="n">
-        <v>-386.7361806299999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>60900</v>
-      </c>
-      <c r="J109" t="n">
-        <v>60850</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>60250</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4030,18 +4099,21 @@
         <v>0.67</v>
       </c>
       <c r="G110" t="n">
-        <v>-386.7361806299999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4063,18 +4135,21 @@
         <v>5.453</v>
       </c>
       <c r="G111" t="n">
-        <v>-386.7361806299999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4096,18 +4171,21 @@
         <v>0.1971</v>
       </c>
       <c r="G112" t="n">
-        <v>-386.7361806299999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4129,18 +4207,21 @@
         <v>3.998</v>
       </c>
       <c r="G113" t="n">
-        <v>-382.7381806299999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4162,18 +4243,21 @@
         <v>0.0198</v>
       </c>
       <c r="G114" t="n">
-        <v>-382.7579806299998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4195,18 +4279,21 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>-382.7579806299998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>60250</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1.004128630705394</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4228,22 +4315,15 @@
         <v>15.8</v>
       </c>
       <c r="G116" t="n">
-        <v>-398.5579806299999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>60800</v>
-      </c>
-      <c r="J116" t="n">
-        <v>60800</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4265,26 +4345,15 @@
         <v>0.0257</v>
       </c>
       <c r="G117" t="n">
-        <v>-398.5579806299999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>60700</v>
-      </c>
-      <c r="J117" t="n">
-        <v>60800</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4306,26 +4375,15 @@
         <v>63</v>
       </c>
       <c r="G118" t="n">
-        <v>-461.5579806299999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>60700</v>
-      </c>
-      <c r="J118" t="n">
-        <v>60800</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4347,26 +4405,15 @@
         <v>37</v>
       </c>
       <c r="G119" t="n">
-        <v>-461.5579806299999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>60250</v>
-      </c>
-      <c r="J119" t="n">
-        <v>60800</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
